--- a/2021-04-12to04-16 (A5) C53517 SoftMARS/03_P3RF/07_v00_MarsBaseAlpha_VirtualDeliveryReport.xlsx
+++ b/2021-04-12to04-16 (A5) C53517 SoftMARS/03_P3RF/07_v00_MarsBaseAlpha_VirtualDeliveryReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PietervanZyl\Documents\GitHub\CMMITools\2021-04-12to04-16 (A5) C53517 SoftMARS\03_P3RF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\2021-05-22to05-28 (A5) C54103 Dongguan2\03_P3RF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D5F63D-A11F-4597-BEC0-AAA8CB814257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3240EC-6982-4AE3-89E1-45BD6FE8936C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{D8DD4604-EC45-0848-870C-305626CAD99D}"/>
   </bookViews>
@@ -40,9 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="119">
   <si>
-    <t>CMMI Virtual Delivery Pilot Report</t>
-  </si>
-  <si>
     <t>Report Identification Information</t>
   </si>
   <si>
@@ -398,6 +395,18 @@
   <si>
     <t>Demix's Virtual Delivery Solutions processes and tools.
 Making use of the participants briefing in Phase 1 to carry out a "virtual solutions" technology test is a highly effective strategy / approach to resolve potential virtual solutions before Phase 2 starts</t>
+  </si>
+  <si>
+    <t>Positive: 
+- Having multiple screens allows access to multiple sources and reference for fast validation as opposed to having one laptop screen on site.
+- easier to engage quiet ATM's through virtual delivery solution "direct chats" and having virtual face to face contact.
+Negative: 
+- difficult to engage quiet interviewees via virtual technology because of multiple participants in one meeting room.
+- NOT possible to make eye contact and assess body language during interviews
+- if DON'T have two screens, then it is difficult to multi-task (i.e. look at what presenter shows AND what is on your open screen (e.g. refer to your own documents vs view what presenter displays)</t>
+  </si>
+  <si>
+    <t>CAS 54103</t>
   </si>
   <si>
     <t>Positives: 
@@ -408,19 +417,11 @@
 Negative:
 - Zoom does NOT work with some customers in China. VooV is used as back-up
 - Some initial technology break-downs, but work-arounds are deployed
-- See comment in SP 1.2 above</t>
-  </si>
-  <si>
-    <t>Positive: 
-- Having multiple screens allows access to multiple sources and reference for fast validation as opposed to having one laptop screen on site.
-- easier to engage quiet ATM's through virtual delivery solution "direct chats" and having virtual face to face contact.
-Negative: 
-- difficult to engage quiet interviewees via virtual technology because of multiple participants in one meeting room.
-- NOT possible to make eye contact and assess body language during interviews
-- if DON'T have two screens, then it is difficult to multi-task (i.e. look at what presenter shows AND what is on your open screen (e.g. refer to your own documents vs view what presenter displays)</t>
-  </si>
-  <si>
-    <t>CAS 654321</t>
+- See comment in SP 1.2 above
+- It is more difficult when people share one virtual terminal (PC/Laptop), than when they have their own terminal (PC/Laptop).</t>
+  </si>
+  <si>
+    <t>CMMI Virtual Delivery Report</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1474,7 @@
   <dimension ref="A1:JB36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5"/>
@@ -1487,7 +1488,7 @@
   <sheetData>
     <row r="1" spans="1:262" ht="26.5" thickBot="1">
       <c r="A1" s="40" t="s">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -1496,7 +1497,7 @@
     </row>
     <row r="2" spans="1:262" ht="26">
       <c r="A2" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="24"/>
@@ -1505,10 +1506,10 @@
     </row>
     <row r="3" spans="1:262" ht="18.5">
       <c r="A3" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
@@ -1516,24 +1517,24 @@
     </row>
     <row r="4" spans="1:262" ht="18.5">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="43">
-        <v>44275</v>
+        <v>44344</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
       <c r="E4" s="45"/>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:262" ht="19" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
@@ -1541,7 +1542,7 @@
     </row>
     <row r="6" spans="1:262" ht="26">
       <c r="A6" s="36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -1550,205 +1551,205 @@
     </row>
     <row r="7" spans="1:262" ht="37">
       <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="32" t="s">
         <v>9</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:262" ht="35">
       <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:262" ht="184.5" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>15</v>
-      </c>
       <c r="C9" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:262" ht="37">
       <c r="A10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="32" t="s">
         <v>9</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:262" ht="52.5">
       <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="29" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>20</v>
       </c>
       <c r="E11" s="33" t="str">
         <f>E8</f>
         <v>Identified within the Appraisal Plan and Demix Virtual Delivery Solution's process.</v>
       </c>
       <c r="IZ11" t="s">
+        <v>18</v>
+      </c>
+      <c r="JB11" t="s">
         <v>19</v>
-      </c>
-      <c r="JB11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:262" ht="35">
       <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="IZ12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="IZ12" t="s">
+      <c r="JB12" t="s">
         <v>23</v>
-      </c>
-      <c r="JB12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:262" ht="37">
       <c r="A13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="IZ13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="IZ13" t="s">
+      <c r="JB13" t="s">
         <v>26</v>
-      </c>
-      <c r="JB13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:262" ht="46.5">
       <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="IZ14" t="s">
+        <v>12</v>
+      </c>
+      <c r="JB14" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="IZ14" t="s">
-        <v>13</v>
-      </c>
-      <c r="JB14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:262" ht="35">
       <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="JB15" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="JB15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:262" ht="53" thickBot="1">
       <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="C16" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>20</v>
-      </c>
       <c r="E16" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26">
       <c r="A17" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -1757,74 +1758,74 @@
     </row>
     <row r="18" spans="1:7" ht="37">
       <c r="A18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>39</v>
-      </c>
       <c r="D18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>9</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="194.15" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="C19" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="35">
       <c r="A20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="C20" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="31.5" thickBot="1">
       <c r="A21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>45</v>
-      </c>
       <c r="C21" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="26">
       <c r="A22" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="25"/>
@@ -1833,7 +1834,7 @@
     </row>
     <row r="23" spans="1:7" ht="17.5">
       <c r="A23" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
@@ -1842,7 +1843,7 @@
     </row>
     <row r="24" spans="1:7" ht="17.5">
       <c r="A24" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -1851,7 +1852,7 @@
     </row>
     <row r="25" spans="1:7" ht="17.5">
       <c r="A25" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
@@ -1860,7 +1861,7 @@
     </row>
     <row r="26" spans="1:7" ht="17.5">
       <c r="A26" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
@@ -1869,7 +1870,7 @@
     </row>
     <row r="27" spans="1:7" ht="17.5">
       <c r="A27" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
@@ -1878,7 +1879,7 @@
     </row>
     <row r="28" spans="1:7" ht="18" thickBot="1">
       <c r="A28" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
@@ -2071,7 +2072,7 @@
   <sheetData>
     <row r="1" spans="1:262" ht="26">
       <c r="A1" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -2080,7 +2081,7 @@
     </row>
     <row r="2" spans="1:262" ht="26">
       <c r="A2" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2089,10 +2090,10 @@
     </row>
     <row r="3" spans="1:262" ht="18.5">
       <c r="A3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
@@ -2100,7 +2101,7 @@
     </row>
     <row r="4" spans="1:262" ht="18.5">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="54">
         <v>43932</v>
@@ -2109,15 +2110,15 @@
       <c r="D4" s="54"/>
       <c r="E4" s="55"/>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:262" ht="18.5">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
@@ -2125,7 +2126,7 @@
     </row>
     <row r="6" spans="1:262" ht="26">
       <c r="A6" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -2134,200 +2135,200 @@
     </row>
     <row r="7" spans="1:262" ht="18.5">
       <c r="A7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:262" ht="18.5">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:262" ht="47.5">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:262" ht="18.5">
       <c r="A10" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:262" ht="35">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="IZ11" t="s">
+        <v>68</v>
+      </c>
+      <c r="JB11" t="s">
         <v>69</v>
-      </c>
-      <c r="JB11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:262" ht="35">
       <c r="A12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="IZ12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="IZ12" t="s">
+      <c r="JB12" t="s">
         <v>72</v>
-      </c>
-      <c r="JB12" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:262" ht="18.5">
       <c r="A13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="IZ13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="IZ13" t="s">
+      <c r="JB13" t="s">
         <v>75</v>
-      </c>
-      <c r="JB13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:262" ht="35">
       <c r="A14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="IZ14" t="s">
+        <v>64</v>
+      </c>
+      <c r="JB14" t="s">
         <v>77</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="IZ14" t="s">
-        <v>65</v>
-      </c>
-      <c r="JB14" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:262" ht="35">
       <c r="A15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="JB15" t="s">
         <v>79</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="JB15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:262" ht="35">
       <c r="A16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="26">
       <c r="A17" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -2336,74 +2337,74 @@
     </row>
     <row r="18" spans="1:7" ht="18.5">
       <c r="A18" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="D18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="63">
       <c r="A19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="C19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E19" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="35">
       <c r="A20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>89</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.5">
       <c r="A21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>91</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="26">
       <c r="A22" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2412,7 +2413,7 @@
     </row>
     <row r="23" spans="1:7" ht="17.5">
       <c r="A23" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
@@ -2421,7 +2422,7 @@
     </row>
     <row r="24" spans="1:7" ht="39" customHeight="1">
       <c r="A24" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -2430,7 +2431,7 @@
     </row>
     <row r="25" spans="1:7" ht="17.5">
       <c r="A25" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
@@ -2439,7 +2440,7 @@
     </row>
     <row r="26" spans="1:7" ht="33" customHeight="1">
       <c r="A26" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
@@ -2448,7 +2449,7 @@
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1">
       <c r="A27" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
@@ -2457,7 +2458,7 @@
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1">
       <c r="A28" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
